--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_85.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_85.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2870813397129187</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'A:min', 'E', 'A:min']]</t>
-        </is>
+          <t>isophonics_93</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1217391304347826</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#']]</t>
+          <t>[['A:min', 'C/5', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(31.051451, 41.036031)]</t>
+          <t>[['D:min', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(72.04, 74.54)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:24.050634', '0:00:27.777437')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:12.780907', '0:00:16.345170')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2125</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G']]</t>
-        </is>
+          <t>jaah_59</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1438263229308005</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F:7', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:06.370000', '0:00:08.660000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:10.200000', '0:00:17.380000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G'], ['C/5', 'D/3', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1217948717948718</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A'], ['D', 'E', 'A']]</t>
+          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965), (33.466326, 38.923015)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853), (60.040123, 71.429511)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:11.700000', '0:00:20.020000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04264705882352941</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F/A', 'C:7/G', 'F/A'], ['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab:7', 'Db'], ['Ab', 'Ab', 'Eb:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(269.32, 271.32), (250.3, 252.76)]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(47.34, 49.58), (22.77, 26.13)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3238636363636364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(111.0, 138.86)]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(149.0, 182.72)]</t>
+          <t>[('0:01:27.660000', '0:01:36.720000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:13.740000', '0:00:16.300000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1916666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(138.8, 144.46)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:08.080000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:04:11.500000', '0:04:15.380000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42), (1.26, 5.92)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68), (13.74, 16.3)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:49.280000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(98.7, 118.8)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(30.8, 45.3)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_297</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6140350877192983</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5'], ['G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72), (19.96, 23.02)]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G'], ['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(26.96, 33.5), (282.12, 287.58)]</t>
+          <t>[('0:00:44.099274', '0:00:58.486116'), ('0:00:40.792222', '0:00:57.809345')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.421247', '0:00:14.077826'), ('0:00:01.302038', '0:00:15.006624')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_44</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05681818181818182</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(21.41, 24.83)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06411637931034483</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D/3', 'D', 'A']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(38.83, 43.56)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(92.073492, 95.022426)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3229166666666666</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(122.78, 141.245)]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(123.22, 127.58)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1101190476190476</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.668956, 11.14034)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.39375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3170289855072464</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E', 'B', 'E'], ['A', 'A:min/b3', 'E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C', 'G/3', 'C'], ['F', 'F:min', 'C', 'G/3', 'C']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(89.257527, 110.178707), (23.370907, 35.305963)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(130.148, 132.075), (38.588, 46.22)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.104371097234612</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(4.394943, 8.342335)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(33.166077, 38.135147)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
